--- a/System and Network Generic Test Suite.xlsx
+++ b/System and Network Generic Test Suite.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mohit\Personal\Git\Security-Test-Guides\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D726E-5327-4BB9-929D-4CCF235FBA9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="585" windowWidth="18720" windowHeight="9495" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
-    <sheet name="Revision History" sheetId="4" r:id="rId2"/>
-    <sheet name="Executive Summary" sheetId="7" r:id="rId3"/>
-    <sheet name="Testcases" sheetId="1" r:id="rId4"/>
-    <sheet name="Port Test" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="DOS Test" sheetId="5" r:id="rId6"/>
-    <sheet name="Tool List" sheetId="6" r:id="rId7"/>
+    <sheet name="Executive Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="1" r:id="rId2"/>
+    <sheet name="Port Test" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="DOS Test" sheetId="5" r:id="rId4"/>
+    <sheet name="Tool List" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Results">Testcases!$A$149:$A$151</definedName>
@@ -24,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Philips</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,82 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
-  <si>
-    <t xml:space="preserve"> System and Network Security Test Report</t>
-  </si>
-  <si>
-    <t>Version: 1.1</t>
-  </si>
-  <si>
-    <t>&lt;Product Name&gt;</t>
-  </si>
-  <si>
-    <t>This document lists the System and Network  Security Test cases. This would be a part of the standard test case which can be executed on a product.</t>
-  </si>
-  <si>
-    <t>Approvers</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Distribution List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;email addresses&gt; </t>
-  </si>
-  <si>
-    <t>Philips Innovation Campus, Bangalore</t>
-  </si>
-  <si>
-    <t>MAC I</t>
-  </si>
-  <si>
-    <t>Classified</t>
-  </si>
-  <si>
-    <t>MAC II</t>
-  </si>
-  <si>
-    <t>Sensitive</t>
-  </si>
-  <si>
-    <t>MAC III</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Revision History</t>
-  </si>
-  <si>
-    <t>Document Date</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Changes/Comments</t>
-  </si>
-  <si>
-    <t>Sanjog Panda</t>
-  </si>
-  <si>
-    <t>Initial Draft</t>
-  </si>
-  <si>
-    <t>Updated after review comments from Minatee are incorporated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorporated review comment from Thom Floyd. </t>
-  </si>
-  <si>
-    <t>Changed tool from Retina to Nessus. Added an extra test cases.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="179">
   <si>
     <t>Comments/ Observations</t>
   </si>
@@ -839,8 +768,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,51 +799,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -922,18 +809,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -993,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1247,126 +1122,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1438,159 +1201,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1626,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1645,13 +1267,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13" xfId="3"/>
-    <cellStyle name="Normal 14" xfId="1"/>
-    <cellStyle name="Normal_CV20 System Product DesignVerificationPlan 080307" xfId="2"/>
-    <cellStyle name="Normal_papu-suvr-01-3079 2" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 14" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1667,7 +1287,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1721,6 +1341,11 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A476-469C-B1A1-2A7DAF630E27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1733,6 +1358,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A476-469C-B1A1-2A7DAF630E27}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1759,6 +1387,11 @@
               </c:pt>
             </c:numLit>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A476-469C-B1A1-2A7DAF630E27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1785,6 +1418,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A476-469C-B1A1-2A7DAF630E27}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1815,6 +1451,11 @@
               </c:pt>
             </c:numLit>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A476-469C-B1A1-2A7DAF630E27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1834,6 +1475,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A476-469C-B1A1-2A7DAF630E27}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1864,6 +1508,11 @@
               </c:pt>
             </c:numLit>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A476-469C-B1A1-2A7DAF630E27}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1960,7 +1609,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Vulnerability Mapping"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Vulnerability Mapping">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2111,10 +1766,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2191,6 +1842,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2226,6 +1894,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2401,826 +2086,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A5:S130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="O4:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="6:19" ht="15.75" thickBot="1"/>
-    <row r="6" spans="6:19">
-      <c r="I6" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="6:19" ht="15.75" thickBot="1">
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-    </row>
-    <row r="8" spans="6:19" ht="15.75" thickBot="1">
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" spans="6:19">
-      <c r="I9" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
-    </row>
-    <row r="10" spans="6:19" ht="15.75" thickBot="1">
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
-    </row>
-    <row r="11" spans="6:19" ht="15.75" thickBot="1"/>
-    <row r="12" spans="6:19">
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="30"/>
-    </row>
-    <row r="13" spans="6:19">
-      <c r="F13" s="25"/>
-      <c r="G13" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="27"/>
-    </row>
-    <row r="14" spans="6:19">
-      <c r="F14" s="25"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="27"/>
-    </row>
-    <row r="15" spans="6:19">
-      <c r="F15" s="25"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="27"/>
-    </row>
-    <row r="16" spans="6:19">
-      <c r="F16" s="25"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="27"/>
-    </row>
-    <row r="17" spans="6:19">
-      <c r="F17" s="25"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="27"/>
-    </row>
-    <row r="18" spans="6:19" ht="15.75">
-      <c r="F18" s="25"/>
-      <c r="G18" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="27"/>
-    </row>
-    <row r="19" spans="6:19">
-      <c r="F19" s="25"/>
-      <c r="G19" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="27"/>
-    </row>
-    <row r="20" spans="6:19">
-      <c r="F20" s="25"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="27"/>
-    </row>
-    <row r="21" spans="6:19">
-      <c r="F21" s="25"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="27"/>
-    </row>
-    <row r="22" spans="6:19">
-      <c r="F22" s="25"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="27"/>
-    </row>
-    <row r="23" spans="6:19">
-      <c r="F23" s="25"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="27"/>
-    </row>
-    <row r="24" spans="6:19">
-      <c r="F24" s="25"/>
-      <c r="G24" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="27"/>
-    </row>
-    <row r="25" spans="6:19" ht="15.75" customHeight="1">
-      <c r="F25" s="25"/>
-      <c r="G25" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-    </row>
-    <row r="26" spans="6:19" ht="30" customHeight="1">
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="27"/>
-    </row>
-    <row r="27" spans="6:19">
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27"/>
-    </row>
-    <row r="28" spans="6:19" ht="15.75" thickBot="1">
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I6:O7"/>
-    <mergeCell ref="I9:O10"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="G13:R13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="C5:M21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:13" ht="15.75">
-      <c r="C5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="3:13">
-      <c r="C6" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="3:13">
-      <c r="C7" s="83">
-        <v>41862</v>
-      </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="3:13">
-      <c r="C8" s="83">
-        <v>41864</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9" s="83">
-        <v>41912</v>
-      </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="53">
-        <v>1</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="C10" s="82">
-        <v>41710</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:L19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O4:V12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="15:22" ht="15.75" thickBot="1">
-      <c r="Q4" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-    </row>
-    <row r="5" spans="15:22">
-      <c r="O5" s="98"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="100"/>
-    </row>
-    <row r="6" spans="15:22">
-      <c r="O6" s="101"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="103"/>
-    </row>
-    <row r="7" spans="15:22">
-      <c r="O7" s="101"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="103"/>
-    </row>
-    <row r="8" spans="15:22">
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="103"/>
-    </row>
-    <row r="9" spans="15:22">
-      <c r="O9" s="101"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
-    </row>
-    <row r="10" spans="15:22">
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="103"/>
-    </row>
-    <row r="11" spans="15:22">
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-    </row>
-    <row r="12" spans="15:22" ht="15.75" thickBot="1">
-      <c r="O12" s="104"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="106"/>
+    <row r="4" spans="15:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+    </row>
+    <row r="6" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+    </row>
+    <row r="7" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="36"/>
+    </row>
+    <row r="8" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="36"/>
+    </row>
+    <row r="9" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="36"/>
+    </row>
+    <row r="10" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+    </row>
+    <row r="12" spans="15:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3232,18 +2192,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A4:J153"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
@@ -3253,648 +2213,648 @@
     <col min="10" max="10" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="9" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" ht="75">
-      <c r="C5" s="2" t="s">
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" ht="60">
-      <c r="C6" s="2" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" ht="105">
-      <c r="C7" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" ht="150">
-      <c r="C8" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="3:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" ht="120">
-      <c r="C9" s="2" t="s">
+      <c r="F15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="3:10" ht="90">
-      <c r="C10" s="2" t="s">
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G17" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="3:10" ht="30">
-      <c r="C11" s="2" t="s">
+      <c r="H17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F18" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="3:10" ht="45">
-      <c r="C12" s="2" t="s">
+      <c r="G18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="H18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="3:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="F19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="3:10" ht="60">
-      <c r="C13" s="2" t="s">
+      <c r="G19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="3:10" ht="30">
-      <c r="C14" s="2" t="s">
+      <c r="F20" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="G20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="3:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="F21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="3:10" ht="165">
-      <c r="C15" s="2" t="s">
+      <c r="H21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="3:10" ht="60">
-      <c r="C16" s="2" t="s">
+      <c r="H22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="F23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="3:10" ht="90">
-      <c r="C17" s="2" t="s">
+      <c r="H23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="3:10" ht="60">
-      <c r="C18" s="2" t="s">
+      <c r="D25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="H25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="D26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="3:10" ht="165">
-      <c r="C19" s="2" t="s">
+      <c r="F26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="H26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="D27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="F27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="3:10" ht="75">
-      <c r="C20" s="2" t="s">
+      <c r="H27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="H28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="3:10" ht="120">
-      <c r="C21" s="2" t="s">
+      <c r="B149" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="5" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="B150" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="3:10" ht="90">
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10" ht="90">
-      <c r="C23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="3:10" ht="75">
-      <c r="C24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="3:10" ht="60">
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="3:10" ht="30">
-      <c r="C26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="3:10" ht="30">
-      <c r="C27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" spans="3:10" ht="60">
-      <c r="C28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>124</v>
-      </c>
-      <c r="B149" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>126</v>
-      </c>
-      <c r="B150" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>39</v>
-      </c>
-      <c r="B151" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="B152" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3903,8 +2863,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3914,301 +2874,301 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="E1" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:8" ht="30.75" thickBot="1">
+    <row r="9" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="11" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="11" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="30.75" thickBot="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30.75" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="60">
-      <c r="C13" s="110">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C13" s="43">
         <v>25</v>
       </c>
-      <c r="D13" s="110" t="s">
-        <v>143</v>
+      <c r="D13" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="90.75" thickBot="1">
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="16" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="30.75" thickBot="1">
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="17" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="30.75" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
         <v>53</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="30.75" thickBot="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
         <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="43">
+        <v>443</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="25">
+        <v>123</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="30">
-      <c r="C18" s="110">
-        <v>443</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="30">
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="30.75" thickBot="1">
-      <c r="C21" s="37">
-        <v>123</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="30.75" thickBot="1">
-      <c r="C22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" thickBot="1">
+    </row>
+    <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="7">
         <v>445</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" thickBot="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="9">
         <v>386686</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="30.75" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="107">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="40">
         <v>3389</v>
       </c>
-      <c r="D26" s="107" t="s">
-        <v>172</v>
+      <c r="D26" s="40" t="s">
+        <v>147</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="19" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4223,13 +3183,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -4239,7 +3198,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -4249,27 +3208,27 @@
     <col min="9" max="9" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="36.75" customHeight="1">
+    <row r="4" spans="3:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -4277,7 +3236,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -4291,7 +3250,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="3:14">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -4305,7 +3264,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="3:14">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4319,7 +3278,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="3:14">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -4333,7 +3292,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -4347,7 +3306,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -4361,7 +3320,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -4375,7 +3334,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="3:14">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -4389,7 +3348,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="3:14">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -4403,7 +3362,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="3:14">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4417,7 +3376,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="3:14">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -4431,7 +3390,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="3:14">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4445,7 +3404,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -4459,7 +3418,7 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -4473,7 +3432,7 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -4487,7 +3446,7 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -4501,7 +3460,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -4515,7 +3474,7 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -4529,22 +3488,22 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D28" s="24"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4552,8 +3511,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4563,119 +3522,119 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="15.75" thickBot="1"/>
-    <row r="4" spans="4:7">
-      <c r="D4" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" ht="30">
+    <row r="3" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D5" s="21">
         <v>1</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" ht="30">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="21">
         <v>3</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D7" s="21">
         <v>5</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="60">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D8" s="21">
         <v>6</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
-      <c r="D9" s="50">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="26">
         <v>7</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
-      <c r="E12" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-    </row>
-    <row r="13" spans="4:7">
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-    </row>
-    <row r="14" spans="4:7">
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-    </row>
-    <row r="15" spans="4:7">
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="E9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4687,6 +3646,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100719CBF7423C5574897D40645C77FAC11" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8497d3ec56f54273b236593c6bd62bca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dcce58c87e9fcebab8021569449a8d0" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4818,32 +3795,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C146D329-BDE7-41BC-8E01-AC54751D8495}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BED8C4-EB0C-4497-BC31-7B612A98DBE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657E3F3E-6121-469F-84D6-B9075051F20C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657E3F3E-6121-469F-84D6-B9075051F20C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BED8C4-EB0C-4497-BC31-7B612A98DBE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C146D329-BDE7-41BC-8E01-AC54751D8495}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>